--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_10-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_10-36.xlsx
@@ -53,6 +53,12 @@
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
   </si>
   <si>
@@ -66,9 +72,6 @@
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
@@ -786,13 +789,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -804,7 +807,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -812,17 +815,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -838,17 +841,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -856,7 +859,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -864,13 +867,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -890,13 +893,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -916,17 +919,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -934,7 +937,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -942,17 +945,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -960,7 +963,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -968,51 +971,77 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="K16" s="10">
-        <v>657.5</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="11">
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
         <v>27</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c t="s" r="F17" s="12">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>50</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c t="s" r="N16" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="26.25" customHeight="1">
+      <c r="K17" s="10">
+        <v>692.5</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="11">
         <v>28</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c t="s" r="I17" s="14">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c t="s" r="F18" s="12">
         <v>29</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c t="s" r="I18" s="14">
+        <v>30</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="50">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1056,10 +1085,13 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:N18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
